--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Tsinghua/大三秋季学期/计算机网络原理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731A26E-C080-5844-B128-9871C24D40AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466D6170-C1B8-9F42-9282-5CC5647D1E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="18740" xr2:uid="{7E4902F0-0072-F54B-B0FB-9508F23376F4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18740" xr2:uid="{7E4902F0-0072-F54B-B0FB-9508F23376F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
-  <si>
-    <t>学号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>连通延迟（ms）</t>
   </si>
@@ -42,9 +42,6 @@
     <t>单连接单工大包（Mbps）</t>
   </si>
   <si>
-    <t>单连接单工小包（K）</t>
-  </si>
-  <si>
     <t>其他</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
   </si>
   <si>
     <t>稳定性（0~1）</t>
+  </si>
+  <si>
+    <t>单连接单工小包（Kpps）</t>
+  </si>
+  <si>
+    <t>R1 学号</t>
+  </si>
+  <si>
+    <t>R2 学号</t>
+  </si>
+  <si>
+    <t>R3 学号</t>
   </si>
 </sst>
 </file>
@@ -425,170 +434,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF77D433-1DBD-1B40-8D12-277C20775797}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:21">
+      <c r="A2">
+        <v>2017000001</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
+        <v>2017000002</v>
+      </c>
+      <c r="C2">
+        <v>2017000003</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1">
-        <f>3*MIN(5,B4+B6+B8+B10+B12+B14+B16)+B2*10+B3*10+10*EXP(-B5/100)+30*(1-EXP(-B7/20))+30*(1-EXP(-B9/10))+10*B11+15*B13+15*B15+B17</f>
+      <c r="T2" s="1">
+        <f>3*MIN(5,F2+H2+J2+L2+N2+P2+R2)+D2*10+E2*10+10*EXP(-G2/100)+30*(1-EXP(-I2/20))+30*(1-EXP(-K2/10))+10*M2+15*O2+15*Q2+S2</f>
         <v>100.52261916209029</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1">
-        <f>MIN(B18,100)</f>
+      <c r="U2" s="1">
+        <f>MIN(T2,100)</f>
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U1" xr:uid="{7C9D5C30-F0EF-C54F-8069-BD7390D07189}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/scores.xlsx
+++ b/scores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Tsinghua/大三秋季学期/计算机网络原理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Router-Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466D6170-C1B8-9F42-9282-5CC5647D1E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4A3424-96DB-6942-87D9-CF2687F7D2EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18740" xr2:uid="{7E4902F0-0072-F54B-B0FB-9508F23376F4}"/>
   </bookViews>
@@ -437,10 +437,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="1">
-        <f>3*MIN(5,F2+H2+J2+L2+N2+P2+R2)+D2*10+E2*10+10*EXP(-G2/100)+30*(1-EXP(-I2/20))+30*(1-EXP(-K2/10))+10*M2+15*O2+15*Q2+S2</f>
+        <f>3*MIN(5,F2+H2+J2+L2+N2+P2+R2)+D2*10+E2*10+10*EXP(-G2/100)+30*(1-EXP(-I2/20))+30*(1-EXP(-K2))+10*M2+15*O2+15*Q2+S2</f>
         <v>100.52261916209029</v>
       </c>
       <c r="U2" s="1">
